--- a/creator.xlsx
+++ b/creator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Вопрос 1</t>
   </si>
@@ -38,6 +38,33 @@
   </si>
   <si>
     <t>Текст на кнопке</t>
+  </si>
+  <si>
+    <t>reply_1</t>
+  </si>
+  <si>
+    <t>reply_2</t>
+  </si>
+  <si>
+    <t>reply_3</t>
+  </si>
+  <si>
+    <t>reply_4</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>спасибо</t>
+  </si>
+  <si>
+    <t>кнопка 3</t>
+  </si>
+  <si>
+    <t>Кнопка 4</t>
+  </si>
+  <si>
+    <t>Вопрос 5</t>
   </si>
 </sst>
 </file>
@@ -379,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +420,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -407,24 +434,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/creator.xlsx
+++ b/creator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Вопрос 1</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>Вопрос 5</t>
+  </si>
+  <si>
+    <t>Вопрос 6</t>
+  </si>
+  <si>
+    <t>Вопрос 7</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>Кнопка 1###data_1</t>
+  </si>
+  <si>
+    <t>Кнопка 2###data_2</t>
+  </si>
+  <si>
+    <t>Кнопка 3###data_3</t>
+  </si>
+  <si>
+    <t>Кнопка 4###data_4</t>
+  </si>
+  <si>
+    <t>data_1</t>
   </si>
 </sst>
 </file>
@@ -406,99 +430,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/creator.xlsx
+++ b/creator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Вопрос 1</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Текст вопросов</t>
   </si>
   <si>
-    <t>Запись в SQLite</t>
-  </si>
-  <si>
     <t>Тип клавиатуры</t>
   </si>
   <si>
@@ -88,7 +85,37 @@
     <t>Кнопка 4###data_4</t>
   </si>
   <si>
-    <t>data_1</t>
+    <t>data_3№№№AllStates.question_8###</t>
+  </si>
+  <si>
+    <t>data_1№№№AllStates.question_7###data_2№№№AllStates.question_7###</t>
+  </si>
+  <si>
+    <t>2###</t>
+  </si>
+  <si>
+    <t>3###</t>
+  </si>
+  <si>
+    <t>4###</t>
+  </si>
+  <si>
+    <t>5###</t>
+  </si>
+  <si>
+    <t>6###</t>
+  </si>
+  <si>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Выходные данные</t>
+  </si>
+  <si>
+    <t>7###</t>
+  </si>
+  <si>
+    <t>8###</t>
   </si>
 </sst>
 </file>
@@ -433,106 +460,140 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,21 +601,36 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/creator.xlsx
+++ b/creator.xlsx
@@ -1,121 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_3\PyQt5\GIT\telegram_bot_creater\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Текст вопросов</t>
+  </si>
+  <si>
+    <t>Выходные данные</t>
+  </si>
+  <si>
+    <t>Тип клавиатуры</t>
+  </si>
+  <si>
+    <t>Текст на кнопке</t>
+  </si>
   <si>
     <t>Вопрос 1</t>
   </si>
   <si>
+    <t>reply_1</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>2###</t>
+  </si>
+  <si>
     <t>Вопрос 2</t>
   </si>
   <si>
+    <t>reply_2</t>
+  </si>
+  <si>
+    <t>спасибо</t>
+  </si>
+  <si>
     <t>Вопрос 3</t>
   </si>
   <si>
-    <t>Вопрос 4</t>
-  </si>
-  <si>
-    <t>Текст вопросов</t>
-  </si>
-  <si>
-    <t>Тип клавиатуры</t>
-  </si>
-  <si>
-    <t>Текст на кнопке</t>
-  </si>
-  <si>
-    <t>reply_1</t>
-  </si>
-  <si>
-    <t>reply_2</t>
-  </si>
-  <si>
     <t>reply_3</t>
   </si>
   <si>
-    <t>reply_4</t>
-  </si>
-  <si>
-    <t>Привет</t>
-  </si>
-  <si>
-    <t>спасибо</t>
-  </si>
-  <si>
     <t>кнопка 3</t>
   </si>
   <si>
-    <t>Кнопка 4</t>
-  </si>
-  <si>
-    <t>Вопрос 5</t>
-  </si>
-  <si>
-    <t>Вопрос 6</t>
-  </si>
-  <si>
-    <t>Вопрос 7</t>
-  </si>
-  <si>
-    <t>inline</t>
-  </si>
-  <si>
-    <t>Кнопка 1###data_1</t>
-  </si>
-  <si>
-    <t>Кнопка 2###data_2</t>
-  </si>
-  <si>
-    <t>Кнопка 3###data_3</t>
-  </si>
-  <si>
-    <t>Кнопка 4###data_4</t>
-  </si>
-  <si>
-    <t>data_3№№№AllStates.question_8###</t>
-  </si>
-  <si>
-    <t>data_1№№№AllStates.question_7###data_2№№№AllStates.question_7###</t>
-  </si>
-  <si>
-    <t>2###</t>
+    <t>3526</t>
+  </si>
+  <si>
+    <t>Command__start__*###</t>
+  </si>
+  <si>
+    <t>Message__2###</t>
   </si>
   <si>
     <t>3###</t>
   </si>
   <si>
-    <t>4###</t>
-  </si>
-  <si>
-    <t>5###</t>
-  </si>
-  <si>
-    <t>6###</t>
-  </si>
-  <si>
-    <t>Входные данные</t>
-  </si>
-  <si>
-    <t>Выходные данные</t>
-  </si>
-  <si>
-    <t>7###</t>
-  </si>
-  <si>
-    <t>8###</t>
+    <t>Message__3###</t>
   </si>
 </sst>
 </file>
@@ -457,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
@@ -473,164 +436,83 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
